--- a/smy2kkl2/smy2kkl/AppData/smy_data_design.xlsx
+++ b/smy2kkl2/smy2kkl/AppData/smy_data_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\smy2kkl2\smy2kkl\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauex-my.sharepoint.com/personal/yoskoyoav_tauex_tau_ac_il/Documents/Utilities/Deshe-1.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14694063-9F00-4066-83DC-C46BEF85406E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{69C41FBB-771F-4BAD-8AE8-C97B63BA02B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD9FA01-B22B-494C-A5AB-12341492F67B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="842" activeTab="4" xr2:uid="{90F9730D-AC86-4E0B-867F-01A06A7B1AFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="codes50k" sheetId="37" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">in_domain_data!$A$1:$F$540</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">in_domain_data!$A$1:$F$538</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">out_domain_data!$A$1:$F$191</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$L$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SDE Domains'!$A$1:$D$402</definedName>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6103" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="954">
   <si>
     <t>Field Name</t>
   </si>
@@ -2949,10 +2949,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>מעורב חורש - שיטים פולשני</t>
-  </si>
-  <si>
-    <t>תיקון 9990 ל-9999. יואב</t>
+    <t>יואב, אילון, מישה</t>
   </si>
 </sst>
 </file>
@@ -3808,7 +3805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F2C009-BA63-4452-B7D4-5C36825C1572}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -7060,8 +7057,8 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11410,11 +11407,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E60008-9E31-4D5D-B686-60B848D93D9E}">
-  <dimension ref="A1:F540"/>
+  <dimension ref="A1:F538"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E496" sqref="E496"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,56 +13266,50 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="87">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>923</v>
       </c>
       <c r="C105" s="87">
-        <v>9999</v>
+        <v>9990</v>
       </c>
       <c r="D105" s="87" t="s">
-        <v>871</v>
+        <v>270</v>
       </c>
       <c r="E105" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="87">
-        <v>310</v>
+      <c r="A106" s="54">
+        <v>291</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C106" s="87">
-        <v>9999</v>
-      </c>
-      <c r="D106" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="E106" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>954</v>
+        <v>228</v>
+      </c>
+      <c r="C106" s="47">
+        <v>2100</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="54">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C107" s="47">
-        <v>2100</v>
+        <v>3060</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>246</v>
@@ -13326,70 +13317,70 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="54">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C108" s="47">
-        <v>3060</v>
+        <v>2990</v>
       </c>
       <c r="D108" s="54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="54">
+      <c r="A109" s="87">
         <v>293</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C109" s="47">
+      <c r="C109" s="87">
         <v>2990</v>
       </c>
-      <c r="D109" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>246</v>
+      <c r="D109" s="87" t="s">
+        <v>893</v>
+      </c>
+      <c r="E109" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F109" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="87">
-        <v>293</v>
-      </c>
-      <c r="B110" s="85" t="s">
+      <c r="A110" s="54">
+        <v>294</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="87">
-        <v>2990</v>
-      </c>
-      <c r="D110" s="87" t="s">
-        <v>893</v>
-      </c>
-      <c r="E110" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F110" s="91" t="s">
-        <v>899</v>
+      <c r="C110" s="47">
+        <v>3970</v>
+      </c>
+      <c r="D110" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="54">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C111" s="47">
-        <v>3970</v>
+        <v>3900</v>
       </c>
       <c r="D111" s="54" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>246</v>
@@ -13397,70 +13388,71 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="54">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C112" s="47">
-        <v>3900</v>
+        <v>3935</v>
       </c>
       <c r="D112" s="54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="54">
+      <c r="A113" s="87">
         <v>296</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="47">
+      <c r="C113" s="87">
         <v>3935</v>
       </c>
-      <c r="D113" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>246</v>
+      <c r="D113" s="87" t="s">
+        <v>894</v>
+      </c>
+      <c r="E113" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="87">
-        <v>296</v>
-      </c>
-      <c r="B114" s="85" t="s">
+      <c r="A114" s="54">
+        <v>297</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="87">
-        <v>3935</v>
-      </c>
-      <c r="D114" s="87" t="s">
-        <v>894</v>
-      </c>
-      <c r="E114" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F114" s="91" t="s">
-        <v>899</v>
-      </c>
+      <c r="C114" s="48">
+        <v>1901</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F114" s="54"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="54">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C115" s="48">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D115" s="54" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>246</v>
@@ -13469,16 +13461,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="54">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C116" s="48">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D116" s="54" t="s">
-        <v>326</v>
+        <v>718</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>246</v>
@@ -13486,55 +13478,54 @@
       <c r="F116" s="54"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="54">
+      <c r="A117" s="87">
         <v>299</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="48">
+      <c r="C117" s="88">
         <v>1903</v>
       </c>
-      <c r="D117" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F117" s="54"/>
+      <c r="D117" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="E117" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F117" s="91" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="87">
-        <v>299</v>
-      </c>
-      <c r="B118" s="85" t="s">
+      <c r="A118" s="54">
+        <v>301</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="88">
-        <v>1903</v>
-      </c>
-      <c r="D118" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="E118" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F118" s="91" t="s">
-        <v>899</v>
+      <c r="C118" s="47">
+        <v>1900</v>
+      </c>
+      <c r="D118" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="54">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C119" s="47">
-        <v>1900</v>
+        <v>1991</v>
       </c>
       <c r="D119" s="54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>246</v>
@@ -13542,16 +13533,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="54">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C120" s="47">
-        <v>1991</v>
+      <c r="C120" s="48">
+        <v>1910</v>
       </c>
       <c r="D120" s="54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>246</v>
@@ -13559,16 +13550,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="54">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="48">
-        <v>1910</v>
+      <c r="C121" s="47">
+        <v>3980</v>
       </c>
       <c r="D121" s="54" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>246</v>
@@ -13576,164 +13567,167 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="54">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C122" s="47">
-        <v>3980</v>
+        <v>3935</v>
       </c>
       <c r="D122" s="54" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="54">
+      <c r="A123" s="87">
         <v>305</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C123" s="47">
+      <c r="C123" s="87">
         <v>3935</v>
       </c>
-      <c r="D123" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>246</v>
+      <c r="D123" s="87" t="s">
+        <v>880</v>
+      </c>
+      <c r="E123" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F123" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="87">
-        <v>305</v>
-      </c>
-      <c r="B124" s="85" t="s">
+      <c r="A124" s="54">
+        <v>306</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="87">
-        <v>3935</v>
-      </c>
-      <c r="D124" s="87" t="s">
-        <v>880</v>
-      </c>
-      <c r="E124" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F124" s="91" t="s">
-        <v>899</v>
+      <c r="C124" s="47">
+        <v>2900</v>
+      </c>
+      <c r="D124" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="54">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C125" s="47">
-        <v>2900</v>
+        <v>3960</v>
       </c>
       <c r="D125" s="54" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="54">
+      <c r="A126" s="87">
         <v>307</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C126" s="47">
+      <c r="C126" s="87">
         <v>3960</v>
       </c>
-      <c r="D126" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>246</v>
+      <c r="D126" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="E126" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="87">
-        <v>307</v>
-      </c>
-      <c r="B127" s="85" t="s">
+      <c r="A127" s="54">
+        <v>308</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C127" s="87">
-        <v>3960</v>
-      </c>
-      <c r="D127" s="87" t="s">
-        <v>611</v>
-      </c>
-      <c r="E127" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F127" s="91" t="s">
-        <v>899</v>
+      <c r="C127" s="47">
+        <v>2200</v>
+      </c>
+      <c r="D127" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="54">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C128" s="47">
-        <v>2200</v>
+        <v>2250</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="54">
+      <c r="A129" s="87">
         <v>309</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C129" s="47">
+      <c r="C129" s="87">
         <v>2250</v>
       </c>
-      <c r="D129" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>246</v>
+      <c r="D129" s="87" t="s">
+        <v>892</v>
+      </c>
+      <c r="E129" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="87">
-        <v>309</v>
+      <c r="A130" s="54">
+        <v>310</v>
       </c>
       <c r="B130" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="87">
-        <v>2250</v>
-      </c>
-      <c r="D130" s="87" t="s">
-        <v>892</v>
-      </c>
-      <c r="E130" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F130" s="91" t="s">
-        <v>899</v>
+      <c r="C130" s="47">
+        <v>9990</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>871</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -14200,37 +14194,37 @@
       <c r="A157" s="54">
         <v>369</v>
       </c>
-      <c r="B157" s="85" t="s">
+      <c r="B157" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C157" s="87">
+      <c r="C157" s="47">
         <v>9999</v>
       </c>
-      <c r="D157" s="87" t="s">
-        <v>871</v>
-      </c>
-      <c r="E157" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F157" s="91" t="s">
-        <v>926</v>
+      <c r="D157" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="54">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C158" s="47">
-        <v>9999</v>
+        <v>9990</v>
       </c>
       <c r="D158" s="50" t="s">
-        <v>270</v>
+        <v>871</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -15404,7 +15398,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="93">
         <v>505</v>
       </c>
@@ -15420,6 +15414,7 @@
       <c r="E226" s="94" t="s">
         <v>247</v>
       </c>
+      <c r="F226" s="3"/>
     </row>
     <row r="227" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="93">
@@ -15518,7 +15513,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="93">
         <v>511</v>
       </c>
@@ -16215,70 +16210,71 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="61"/>
+      <c r="A271" s="61">
+        <v>1997</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C271" s="61">
         <v>1997</v>
       </c>
-      <c r="D271" s="55" t="s">
-        <v>674</v>
+      <c r="D271" t="s">
+        <v>934</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F271" s="3" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="61"/>
+      <c r="A272" s="61">
+        <v>1998</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C272" s="61">
-        <v>1997</v>
-      </c>
-      <c r="D272" t="s">
-        <v>953</v>
+        <v>1998</v>
+      </c>
+      <c r="D272" s="55" t="s">
+        <v>675</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F272" s="3" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="61">
-        <v>1997</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C273" s="61">
-        <v>1997</v>
-      </c>
-      <c r="D273" t="s">
-        <v>934</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>246</v>
+      <c r="A273" s="84">
+        <v>2000</v>
+      </c>
+      <c r="B273" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C273" s="84">
+        <v>2000</v>
+      </c>
+      <c r="D273" s="84" t="s">
+        <v>885</v>
+      </c>
+      <c r="E273" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F273" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="61">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C274" s="61">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D274" s="55" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>246</v>
@@ -16295,13 +16291,13 @@
         <v>2000</v>
       </c>
       <c r="D275" s="84" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
       <c r="E275" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="F275" s="86" t="s">
-        <v>899</v>
+      <c r="F275" s="3" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -16314,45 +16310,45 @@
       <c r="C276" s="61">
         <v>2000</v>
       </c>
-      <c r="D276" s="55" t="s">
-        <v>676</v>
+      <c r="D276" t="s">
+        <v>935</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="F276" s="3" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="84">
-        <v>2000</v>
-      </c>
-      <c r="B277" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C277" s="84">
-        <v>2000</v>
-      </c>
-      <c r="D277" s="84" t="s">
-        <v>936</v>
-      </c>
-      <c r="E277" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>926</v>
+      <c r="A277" s="61">
+        <v>2001</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C277" s="61">
+        <v>2001</v>
+      </c>
+      <c r="D277" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="61">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C278" s="61">
-        <v>2000</v>
-      </c>
-      <c r="D278" t="s">
-        <v>935</v>
+        <v>2001</v>
+      </c>
+      <c r="D278" s="55" t="s">
+        <v>937</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>246</v>
@@ -16363,16 +16359,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="61">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C279" s="61">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D279" s="55" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>246</v>
@@ -16380,16 +16376,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="61">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C280" s="61">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D280" s="55" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>246</v>
@@ -16399,36 +16395,39 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="61">
-        <v>2002</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C281" s="61">
-        <v>2002</v>
-      </c>
-      <c r="D281" s="55" t="s">
-        <v>678</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>246</v>
+      <c r="A281" s="90">
+        <v>2003</v>
+      </c>
+      <c r="B281" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C281" s="90">
+        <v>2003</v>
+      </c>
+      <c r="D281" s="90" t="s">
+        <v>886</v>
+      </c>
+      <c r="E281" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F281" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="61">
-        <v>2002</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C282" s="61">
-        <v>2002</v>
-      </c>
-      <c r="D282" s="55" t="s">
-        <v>938</v>
-      </c>
-      <c r="E282" s="1" t="s">
+      <c r="A282" s="90">
+        <v>2003</v>
+      </c>
+      <c r="B282" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C282" s="90">
+        <v>2003</v>
+      </c>
+      <c r="D282" s="90" t="s">
+        <v>939</v>
+      </c>
+      <c r="E282" s="85" t="s">
         <v>246</v>
       </c>
       <c r="F282" s="3" t="s">
@@ -16436,23 +16435,20 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="90">
+      <c r="A283" s="62">
         <v>2003</v>
       </c>
-      <c r="B283" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C283" s="90">
+      <c r="B283" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C283" s="62">
         <v>2003</v>
       </c>
-      <c r="D283" s="90" t="s">
-        <v>886</v>
-      </c>
-      <c r="E283" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F283" s="86" t="s">
-        <v>899</v>
+      <c r="D283" s="56" t="s">
+        <v>679</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -16465,87 +16461,87 @@
       <c r="C284" s="90">
         <v>2003</v>
       </c>
-      <c r="D284" s="90" t="s">
-        <v>939</v>
+      <c r="D284" t="s">
+        <v>940</v>
       </c>
       <c r="E284" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F284" s="86" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="62">
-        <v>2003</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C285" s="62">
-        <v>2003</v>
-      </c>
-      <c r="D285" s="56" t="s">
-        <v>679</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>246</v>
+      <c r="A285" s="84">
+        <v>2004</v>
+      </c>
+      <c r="B285" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C285" s="84">
+        <v>2004</v>
+      </c>
+      <c r="D285" s="84" t="s">
+        <v>887</v>
+      </c>
+      <c r="E285" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F285" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="90">
-        <v>2003</v>
+      <c r="A286" s="84">
+        <v>2004</v>
       </c>
       <c r="B286" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="C286" s="90">
-        <v>2003</v>
-      </c>
-      <c r="D286" t="s">
-        <v>940</v>
+      <c r="C286" s="84">
+        <v>2004</v>
+      </c>
+      <c r="D286" s="84" t="s">
+        <v>942</v>
       </c>
       <c r="E286" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="F286" s="86" t="s">
+      <c r="F286" s="3" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="84">
+      <c r="A287" s="61">
         <v>2004</v>
       </c>
-      <c r="B287" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C287" s="84">
+      <c r="B287" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C287" s="61">
         <v>2004</v>
       </c>
-      <c r="D287" s="84" t="s">
-        <v>887</v>
-      </c>
-      <c r="E287" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F287" s="86" t="s">
-        <v>899</v>
+      <c r="D287" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="84">
+      <c r="A288" s="61">
         <v>2004</v>
       </c>
-      <c r="B288" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C288" s="84">
+      <c r="B288" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C288" s="61">
         <v>2004</v>
       </c>
-      <c r="D288" s="84" t="s">
-        <v>942</v>
-      </c>
-      <c r="E288" s="85" t="s">
+      <c r="D288" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F288" s="3" t="s">
@@ -16554,35 +16550,35 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="61">
-        <v>2004</v>
-      </c>
-      <c r="B289" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B289" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C289" s="61">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D289" s="55" t="s">
-        <v>681</v>
-      </c>
-      <c r="E289" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E289" s="45" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="61">
-        <v>2004</v>
-      </c>
-      <c r="B290" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B290" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C290" s="61">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D290" s="55" t="s">
-        <v>943</v>
-      </c>
-      <c r="E290" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E290" s="45" t="s">
         <v>246</v>
       </c>
       <c r="F290" s="3" t="s">
@@ -16591,72 +16587,72 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="61">
-        <v>2005</v>
-      </c>
-      <c r="B291" s="45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C291" s="61">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="E291" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="E291" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="61">
-        <v>2005</v>
-      </c>
-      <c r="B292" s="45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C292" s="61">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D292" s="55" t="s">
-        <v>944</v>
-      </c>
-      <c r="E292" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F292" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F292" s="86" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="61">
-        <v>2006</v>
-      </c>
-      <c r="B293" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B293" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C293" s="61">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="E293" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E293" s="45" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="61">
-        <v>2006</v>
-      </c>
-      <c r="B294" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B294" s="45" t="s">
         <v>223</v>
       </c>
       <c r="C294" s="61">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D294" s="55" t="s">
-        <v>945</v>
-      </c>
-      <c r="E294" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E294" s="45" t="s">
         <v>246</v>
       </c>
       <c r="F294" s="86" t="s">
@@ -16665,35 +16661,35 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="61">
-        <v>2007</v>
-      </c>
-      <c r="B295" s="45" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C295" s="61">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D295" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="E295" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="61">
-        <v>2007</v>
-      </c>
-      <c r="B296" s="45" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C296" s="61">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D296" s="55" t="s">
-        <v>946</v>
-      </c>
-      <c r="E296" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F296" s="86" t="s">
@@ -16701,36 +16697,39 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="61">
-        <v>2008</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C297" s="61">
-        <v>2008</v>
-      </c>
-      <c r="D297" s="55" t="s">
-        <v>685</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>246</v>
+      <c r="A297" s="84">
+        <v>2009</v>
+      </c>
+      <c r="B297" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C297" s="84">
+        <v>2009</v>
+      </c>
+      <c r="D297" s="84" t="s">
+        <v>888</v>
+      </c>
+      <c r="E297" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F297" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="61">
-        <v>2008</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C298" s="61">
-        <v>2008</v>
-      </c>
-      <c r="D298" s="55" t="s">
-        <v>947</v>
-      </c>
-      <c r="E298" s="1" t="s">
+      <c r="A298" s="84">
+        <v>2009</v>
+      </c>
+      <c r="B298" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C298" s="84">
+        <v>2009</v>
+      </c>
+      <c r="D298" s="84" t="s">
+        <v>948</v>
+      </c>
+      <c r="E298" s="85" t="s">
         <v>246</v>
       </c>
       <c r="F298" s="86" t="s">
@@ -16738,39 +16737,36 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="84">
+      <c r="A299" s="61">
         <v>2009</v>
       </c>
-      <c r="B299" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C299" s="84">
+      <c r="B299" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C299" s="61">
         <v>2009</v>
       </c>
-      <c r="D299" s="84" t="s">
-        <v>888</v>
-      </c>
-      <c r="E299" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F299" s="86" t="s">
-        <v>899</v>
+      <c r="D299" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="84">
+      <c r="A300" s="61">
         <v>2009</v>
       </c>
-      <c r="B300" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="84">
+      <c r="B300" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C300" s="61">
         <v>2009</v>
       </c>
-      <c r="D300" s="84" t="s">
-        <v>948</v>
-      </c>
-      <c r="E300" s="85" t="s">
+      <c r="D300" s="55" t="s">
+        <v>949</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F300" s="86" t="s">
@@ -16779,16 +16775,16 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="61">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C301" s="61">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D301" s="55" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>246</v>
@@ -16796,16 +16792,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="61">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C302" s="61">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D302" s="55" t="s">
-        <v>949</v>
+        <v>791</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>246</v>
@@ -16815,34 +16811,34 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="61">
-        <v>2010</v>
+      <c r="A303" s="59">
+        <v>2012</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C303" s="61">
-        <v>2010</v>
+      <c r="C303" s="59">
+        <v>2012</v>
       </c>
       <c r="D303" s="55" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="61">
-        <v>2010</v>
+      <c r="A304" s="59">
+        <v>2012</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C304" s="61">
-        <v>2010</v>
+      <c r="C304" s="59">
+        <v>2012</v>
       </c>
       <c r="D304" s="55" t="s">
-        <v>791</v>
+        <v>950</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>246</v>
@@ -16852,91 +16848,91 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="59">
-        <v>2012</v>
+      <c r="A305" s="62">
+        <v>2013</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C305" s="59">
-        <v>2012</v>
-      </c>
-      <c r="D305" s="55" t="s">
-        <v>688</v>
+      <c r="C305" s="62">
+        <v>2013</v>
+      </c>
+      <c r="D305" s="56" t="s">
+        <v>680</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="59">
-        <v>2012</v>
+      <c r="A306" s="62">
+        <v>2013</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C306" s="59">
-        <v>2012</v>
-      </c>
-      <c r="D306" s="55" t="s">
-        <v>950</v>
+      <c r="C306" s="62">
+        <v>2013</v>
+      </c>
+      <c r="D306" s="56" t="s">
+        <v>941</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F306" s="86" t="s">
+      <c r="F306" s="3" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="62">
-        <v>2013</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C307" s="62">
-        <v>2013</v>
-      </c>
-      <c r="D307" s="56" t="s">
-        <v>680</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>246</v>
+      <c r="A307" s="87">
+        <v>2100</v>
+      </c>
+      <c r="B307" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C307" s="87">
+        <v>2100</v>
+      </c>
+      <c r="D307" s="87" t="s">
+        <v>810</v>
+      </c>
+      <c r="E307" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F307" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="62">
-        <v>2013</v>
+      <c r="A308" s="59">
+        <v>2100</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C308" s="62">
-        <v>2013</v>
-      </c>
-      <c r="D308" s="56" t="s">
-        <v>941</v>
+      <c r="C308" s="59">
+        <v>2100</v>
+      </c>
+      <c r="D308" s="50" t="s">
+        <v>438</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F308" s="3" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="87">
-        <v>2100</v>
+      <c r="A309" s="84">
+        <v>2103</v>
       </c>
       <c r="B309" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="C309" s="87">
-        <v>2100</v>
-      </c>
-      <c r="D309" s="87" t="s">
-        <v>810</v>
+      <c r="C309" s="84">
+        <v>2103</v>
+      </c>
+      <c r="D309" s="84" t="s">
+        <v>833</v>
       </c>
       <c r="E309" s="85" t="s">
         <v>246</v>
@@ -16946,34 +16942,34 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="59">
-        <v>2100</v>
+      <c r="A310" s="49">
+        <v>2103</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C310" s="59">
-        <v>2100</v>
-      </c>
-      <c r="D310" s="50" t="s">
-        <v>438</v>
+      <c r="C310" s="49">
+        <v>2103</v>
+      </c>
+      <c r="D310" s="49" t="s">
+        <v>446</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="84">
-        <v>2103</v>
+      <c r="A311" s="87">
+        <v>2108</v>
       </c>
       <c r="B311" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="C311" s="84">
-        <v>2103</v>
-      </c>
-      <c r="D311" s="84" t="s">
-        <v>833</v>
+      <c r="C311" s="87">
+        <v>2108</v>
+      </c>
+      <c r="D311" s="87" t="s">
+        <v>811</v>
       </c>
       <c r="E311" s="85" t="s">
         <v>246</v>
@@ -16983,17 +16979,17 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="49">
-        <v>2103</v>
+      <c r="A312" s="59">
+        <v>2108</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C312" s="49">
-        <v>2103</v>
-      </c>
-      <c r="D312" s="49" t="s">
-        <v>446</v>
+      <c r="C312" s="59">
+        <v>2108</v>
+      </c>
+      <c r="D312" s="50" t="s">
+        <v>408</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>246</v>
@@ -17001,16 +16997,16 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="87">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="B313" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C313" s="87">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="D313" s="87" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E313" s="85" t="s">
         <v>246</v>
@@ -17021,33 +17017,33 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="59">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C314" s="59">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="D314" s="50" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="87">
-        <v>2113</v>
+      <c r="A315" s="84">
+        <v>2116</v>
       </c>
       <c r="B315" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="C315" s="87">
-        <v>2113</v>
+      <c r="C315" s="84">
+        <v>2116</v>
       </c>
       <c r="D315" s="87" t="s">
-        <v>812</v>
+        <v>439</v>
       </c>
       <c r="E315" s="85" t="s">
         <v>246</v>
@@ -17057,17 +17053,17 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="59">
-        <v>2113</v>
+      <c r="A316" s="49">
+        <v>2116</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C316" s="59">
-        <v>2113</v>
-      </c>
-      <c r="D316" s="50" t="s">
-        <v>409</v>
+      <c r="C316" s="49">
+        <v>2116</v>
+      </c>
+      <c r="D316" s="54" t="s">
+        <v>439</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>246</v>
@@ -17075,16 +17071,16 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="84">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B317" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C317" s="84">
-        <v>2116</v>
-      </c>
-      <c r="D317" s="87" t="s">
-        <v>439</v>
+        <v>2117</v>
+      </c>
+      <c r="D317" s="84" t="s">
+        <v>835</v>
       </c>
       <c r="E317" s="85" t="s">
         <v>246</v>
@@ -17095,16 +17091,16 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="49">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C318" s="49">
-        <v>2116</v>
-      </c>
-      <c r="D318" s="54" t="s">
-        <v>439</v>
+        <v>2117</v>
+      </c>
+      <c r="D318" s="49" t="s">
+        <v>447</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>246</v>
@@ -17112,16 +17108,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="84">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B319" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C319" s="84">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D319" s="84" t="s">
-        <v>835</v>
+        <v>889</v>
       </c>
       <c r="E319" s="85" t="s">
         <v>246</v>
@@ -17132,33 +17128,36 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="49">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C320" s="49">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D320" s="49" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="84">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="B321" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C321" s="84">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="D321" s="84" t="s">
-        <v>889</v>
+        <v>837</v>
       </c>
       <c r="E321" s="85" t="s">
         <v>246</v>
@@ -17169,36 +17168,33 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="49">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C322" s="49">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="D322" s="49" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="84">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B323" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C323" s="84">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="D323" s="84" t="s">
-        <v>837</v>
+        <v>890</v>
       </c>
       <c r="E323" s="85" t="s">
         <v>246</v>
@@ -17209,16 +17205,16 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="49">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C324" s="49">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="D324" s="49" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>246</v>
@@ -17226,16 +17222,16 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="84">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B325" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C325" s="84">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="D325" s="84" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E325" s="85" t="s">
         <v>246</v>
@@ -17246,158 +17242,155 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="49">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C326" s="49">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="D326" s="49" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="84">
-        <v>2130</v>
-      </c>
-      <c r="B327" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C327" s="84">
-        <v>2130</v>
-      </c>
-      <c r="D327" s="84" t="s">
-        <v>891</v>
-      </c>
-      <c r="E327" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F327" s="86" t="s">
-        <v>899</v>
+      <c r="A327" s="59">
+        <v>2200</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C327" s="59">
+        <v>2200</v>
+      </c>
+      <c r="D327" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="49">
-        <v>2130</v>
+        <v>2201</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C328" s="49">
-        <v>2130</v>
+        <v>2201</v>
       </c>
       <c r="D328" s="49" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="59">
-        <v>2200</v>
+      <c r="A329" s="43">
+        <v>2203</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C329" s="59">
-        <v>2200</v>
-      </c>
-      <c r="D329" s="50" t="s">
-        <v>343</v>
+      <c r="C329" s="43">
+        <v>2203</v>
+      </c>
+      <c r="D329" s="43" t="s">
+        <v>607</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="F329" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="49">
-        <v>2201</v>
+      <c r="A330" s="54">
+        <v>2206</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C330" s="49">
-        <v>2201</v>
-      </c>
-      <c r="D330" s="49" t="s">
-        <v>575</v>
+      <c r="C330" s="54">
+        <v>2206</v>
+      </c>
+      <c r="D330" s="54" t="s">
+        <v>576</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="43">
-        <v>2203</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C331" s="43">
-        <v>2203</v>
-      </c>
-      <c r="D331" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>423</v>
+      <c r="A331" s="54">
+        <v>2209</v>
+      </c>
+      <c r="B331" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C331" s="54">
+        <v>2209</v>
+      </c>
+      <c r="D331" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E331" s="45" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="54">
-        <v>2206</v>
+      <c r="A332" s="59">
+        <v>2211</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C332" s="54">
-        <v>2206</v>
-      </c>
-      <c r="D332" s="54" t="s">
-        <v>576</v>
+      <c r="C332" s="59">
+        <v>2211</v>
+      </c>
+      <c r="D332" s="50" t="s">
+        <v>317</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="54">
-        <v>2209</v>
-      </c>
-      <c r="B333" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C333" s="54">
-        <v>2209</v>
-      </c>
-      <c r="D333" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="E333" s="45" t="s">
+      <c r="A333" s="49">
+        <v>2215</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C333" s="49">
+        <v>2215</v>
+      </c>
+      <c r="D333" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="59">
-        <v>2211</v>
+      <c r="A334" s="54">
+        <v>2217</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C334" s="59">
-        <v>2211</v>
-      </c>
-      <c r="D334" s="50" t="s">
-        <v>317</v>
+      <c r="C334" s="54">
+        <v>2217</v>
+      </c>
+      <c r="D334" s="54" t="s">
+        <v>581</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>246</v>
@@ -17405,84 +17398,84 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="49">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C335" s="49">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="D335" s="49" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="54">
-        <v>2217</v>
+      <c r="A336" s="49">
+        <v>2221</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C336" s="54">
-        <v>2217</v>
-      </c>
-      <c r="D336" s="54" t="s">
-        <v>581</v>
+      <c r="C336" s="49">
+        <v>2221</v>
+      </c>
+      <c r="D336" s="49" t="s">
+        <v>580</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="49">
-        <v>2218</v>
+      <c r="A337" s="54">
+        <v>2222</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C337" s="49">
-        <v>2218</v>
-      </c>
-      <c r="D337" s="49" t="s">
-        <v>579</v>
+      <c r="C337" s="54">
+        <v>2222</v>
+      </c>
+      <c r="D337" s="54" t="s">
+        <v>577</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="49">
-        <v>2221</v>
+      <c r="A338" s="43">
+        <v>2225</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C338" s="49">
-        <v>2221</v>
-      </c>
-      <c r="D338" s="49" t="s">
-        <v>580</v>
+      <c r="C338" s="43">
+        <v>2225</v>
+      </c>
+      <c r="D338" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="54">
-        <v>2222</v>
+      <c r="A339" s="49">
+        <v>2229</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C339" s="54">
-        <v>2222</v>
-      </c>
-      <c r="D339" s="54" t="s">
-        <v>577</v>
+      <c r="C339" s="49">
+        <v>2229</v>
+      </c>
+      <c r="D339" s="49" t="s">
+        <v>582</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>246</v>
@@ -17490,16 +17483,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="43">
-        <v>2225</v>
+        <v>2230</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C340" s="43">
-        <v>2225</v>
+        <v>2230</v>
       </c>
       <c r="D340" s="43" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>246</v>
@@ -17507,16 +17500,16 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="49">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C341" s="49">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="D341" s="49" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>246</v>
@@ -17524,121 +17517,121 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="43">
-        <v>2230</v>
+        <v>2235</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C342" s="43">
-        <v>2230</v>
+        <v>2235</v>
       </c>
       <c r="D342" s="43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="49">
-        <v>2231</v>
+      <c r="A343" s="54">
+        <v>2244</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C343" s="49">
-        <v>2231</v>
-      </c>
-      <c r="D343" s="49" t="s">
-        <v>584</v>
+      <c r="C343" s="54">
+        <v>2244</v>
+      </c>
+      <c r="D343" s="54" t="s">
+        <v>583</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="43">
-        <v>2235</v>
+      <c r="A344" s="59">
+        <v>2250</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C344" s="43">
-        <v>2235</v>
-      </c>
-      <c r="D344" s="43" t="s">
-        <v>608</v>
+      <c r="C344" s="59">
+        <v>2250</v>
+      </c>
+      <c r="D344" s="50" t="s">
+        <v>344</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="54">
-        <v>2244</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C345" s="54">
-        <v>2244</v>
-      </c>
-      <c r="D345" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>246</v>
+      <c r="A345" s="87">
+        <v>2250</v>
+      </c>
+      <c r="B345" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C345" s="87">
+        <v>2250</v>
+      </c>
+      <c r="D345" s="87" t="s">
+        <v>892</v>
+      </c>
+      <c r="E345" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F345" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="59">
-        <v>2250</v>
+      <c r="A346" s="49">
+        <v>2306</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C346" s="59">
-        <v>2250</v>
-      </c>
-      <c r="D346" s="50" t="s">
-        <v>344</v>
+      <c r="C346" s="49">
+        <v>2306</v>
+      </c>
+      <c r="D346" s="49" t="s">
+        <v>430</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="87">
-        <v>2250</v>
-      </c>
-      <c r="B347" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C347" s="87">
-        <v>2250</v>
-      </c>
-      <c r="D347" s="87" t="s">
-        <v>892</v>
-      </c>
-      <c r="E347" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F347" s="86" t="s">
-        <v>899</v>
+      <c r="A347" s="54">
+        <v>2308</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C347" s="54">
+        <v>2308</v>
+      </c>
+      <c r="D347" s="54" t="s">
+        <v>700</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="49">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C348" s="49">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="D348" s="49" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>246</v>
@@ -17646,67 +17639,67 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="54">
-        <v>2308</v>
+        <v>2381</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C349" s="54">
-        <v>2308</v>
+        <v>2381</v>
       </c>
       <c r="D349" s="54" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="49">
-        <v>2309</v>
+      <c r="A350" s="54">
+        <v>2382</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C350" s="49">
-        <v>2309</v>
-      </c>
-      <c r="D350" s="49" t="s">
-        <v>433</v>
+      <c r="C350" s="54">
+        <v>2382</v>
+      </c>
+      <c r="D350" s="54" t="s">
+        <v>702</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="54">
-        <v>2381</v>
+      <c r="A351" s="49">
+        <v>2390</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C351" s="54">
-        <v>2381</v>
-      </c>
-      <c r="D351" s="54" t="s">
-        <v>701</v>
+      <c r="C351" s="49">
+        <v>2390</v>
+      </c>
+      <c r="D351" s="49" t="s">
+        <v>546</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="54">
-        <v>2382</v>
+      <c r="A352" s="49">
+        <v>2411</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C352" s="54">
-        <v>2382</v>
-      </c>
-      <c r="D352" s="54" t="s">
-        <v>702</v>
+      <c r="C352" s="49">
+        <v>2411</v>
+      </c>
+      <c r="D352" s="49" t="s">
+        <v>555</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>246</v>
@@ -17714,16 +17707,16 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="49">
-        <v>2390</v>
+        <v>2420</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C353" s="49">
-        <v>2390</v>
+        <v>2420</v>
       </c>
       <c r="D353" s="49" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>246</v>
@@ -17731,16 +17724,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="49">
-        <v>2411</v>
+        <v>2440</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C354" s="49">
-        <v>2411</v>
+        <v>2440</v>
       </c>
       <c r="D354" s="49" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>246</v>
@@ -17748,16 +17741,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="49">
-        <v>2420</v>
+        <v>2450</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C355" s="49">
-        <v>2420</v>
+        <v>2450</v>
       </c>
       <c r="D355" s="49" t="s">
-        <v>560</v>
+        <v>426</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>246</v>
@@ -17765,33 +17758,33 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="49">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C356" s="49">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="D356" s="49" t="s">
-        <v>592</v>
+        <v>425</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="49">
-        <v>2450</v>
+      <c r="A357" s="60">
+        <v>2900</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C357" s="49">
-        <v>2450</v>
-      </c>
-      <c r="D357" s="49" t="s">
-        <v>426</v>
+      <c r="C357" s="60">
+        <v>2900</v>
+      </c>
+      <c r="D357" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>246</v>
@@ -17799,172 +17792,172 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="49">
-        <v>2451</v>
+        <v>2910</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C358" s="49">
-        <v>2451</v>
+        <v>2910</v>
       </c>
       <c r="D358" s="49" t="s">
-        <v>425</v>
+        <v>568</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="60">
-        <v>2900</v>
+      <c r="A359" s="59">
+        <v>2990</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C359" s="60">
-        <v>2900</v>
-      </c>
-      <c r="D359" s="51" t="s">
-        <v>424</v>
+      <c r="C359" s="59">
+        <v>2990</v>
+      </c>
+      <c r="D359" s="50" t="s">
+        <v>336</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="49">
-        <v>2910</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C360" s="49">
-        <v>2910</v>
-      </c>
-      <c r="D360" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>246</v>
+      <c r="A360" s="87">
+        <v>2990</v>
+      </c>
+      <c r="B360" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C360" s="87">
+        <v>2990</v>
+      </c>
+      <c r="D360" s="87" t="s">
+        <v>893</v>
+      </c>
+      <c r="E360" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F360" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="59">
-        <v>2990</v>
+      <c r="A361" s="60">
+        <v>2994</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C361" s="59">
-        <v>2990</v>
-      </c>
-      <c r="D361" s="50" t="s">
-        <v>336</v>
+      <c r="C361" s="60">
+        <v>2994</v>
+      </c>
+      <c r="D361" s="57" t="s">
+        <v>496</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="87">
-        <v>2990</v>
-      </c>
-      <c r="B362" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C362" s="87">
-        <v>2990</v>
-      </c>
-      <c r="D362" s="87" t="s">
-        <v>893</v>
-      </c>
-      <c r="E362" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F362" s="86" t="s">
-        <v>899</v>
+      <c r="A362" s="59">
+        <v>2995</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C362" s="59">
+        <v>2995</v>
+      </c>
+      <c r="D362" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="60">
-        <v>2994</v>
+      <c r="A363" s="53">
+        <v>2998</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C363" s="60">
-        <v>2994</v>
-      </c>
-      <c r="D363" s="57" t="s">
-        <v>496</v>
+      <c r="C363" s="53">
+        <v>2998</v>
+      </c>
+      <c r="D363" s="52" t="s">
+        <v>486</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="59">
-        <v>2995</v>
+      <c r="A364" s="60">
+        <v>2998</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C364" s="59">
-        <v>2995</v>
-      </c>
-      <c r="D364" s="50" t="s">
-        <v>410</v>
+      <c r="C364" s="60">
+        <v>2998</v>
+      </c>
+      <c r="D364" s="51" t="s">
+        <v>411</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="53">
-        <v>2998</v>
+      <c r="A365" s="49">
+        <v>3011</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C365" s="53">
-        <v>2998</v>
-      </c>
-      <c r="D365" s="52" t="s">
-        <v>486</v>
+      <c r="C365" s="49">
+        <v>3011</v>
+      </c>
+      <c r="D365" s="49" t="s">
+        <v>427</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="60">
-        <v>2998</v>
+      <c r="A366" s="49">
+        <v>3021</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C366" s="60">
-        <v>2998</v>
-      </c>
-      <c r="D366" s="51" t="s">
-        <v>411</v>
+      <c r="C366" s="49">
+        <v>3021</v>
+      </c>
+      <c r="D366" s="49" t="s">
+        <v>428</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="49">
-        <v>3011</v>
+      <c r="A367" s="59">
+        <v>3030</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C367" s="49">
-        <v>3011</v>
-      </c>
-      <c r="D367" s="49" t="s">
-        <v>427</v>
+      <c r="C367" s="59">
+        <v>3030</v>
+      </c>
+      <c r="D367" s="50" t="s">
+        <v>412</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>246</v>
@@ -17972,33 +17965,33 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="49">
-        <v>3021</v>
+        <v>3031</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C368" s="49">
-        <v>3021</v>
+        <v>3031</v>
       </c>
       <c r="D368" s="49" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="59">
-        <v>3030</v>
+      <c r="A369" s="49">
+        <v>3032</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C369" s="59">
-        <v>3030</v>
-      </c>
-      <c r="D369" s="50" t="s">
-        <v>412</v>
+      <c r="C369" s="49">
+        <v>3032</v>
+      </c>
+      <c r="D369" s="49" t="s">
+        <v>441</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>246</v>
@@ -18006,50 +17999,50 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="49">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C370" s="49">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="D370" s="49" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="49">
-        <v>3032</v>
+      <c r="A371" s="59">
+        <v>3040</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C371" s="49">
-        <v>3032</v>
-      </c>
-      <c r="D371" s="49" t="s">
-        <v>441</v>
+      <c r="C371" s="59">
+        <v>3040</v>
+      </c>
+      <c r="D371" s="50" t="s">
+        <v>413</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="49">
-        <v>3033</v>
+      <c r="A372" s="59">
+        <v>3042</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C372" s="49">
-        <v>3033</v>
-      </c>
-      <c r="D372" s="49" t="s">
-        <v>442</v>
+      <c r="C372" s="59">
+        <v>3042</v>
+      </c>
+      <c r="D372" s="50" t="s">
+        <v>414</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>246</v>
@@ -18057,118 +18050,118 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="59">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C373" s="59">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="D373" s="50" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="59">
-        <v>3042</v>
+      <c r="A374" s="49">
+        <v>3045</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C374" s="59">
-        <v>3042</v>
-      </c>
-      <c r="D374" s="50" t="s">
-        <v>414</v>
+      <c r="C374" s="49">
+        <v>3045</v>
+      </c>
+      <c r="D374" s="49" t="s">
+        <v>443</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="59">
-        <v>3044</v>
+      <c r="A375" s="49">
+        <v>3051</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C375" s="59">
-        <v>3044</v>
-      </c>
-      <c r="D375" s="50" t="s">
-        <v>415</v>
+      <c r="C375" s="49">
+        <v>3051</v>
+      </c>
+      <c r="D375" s="49" t="s">
+        <v>462</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="49">
-        <v>3045</v>
+      <c r="A376" s="59">
+        <v>3060</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C376" s="49">
-        <v>3045</v>
-      </c>
-      <c r="D376" s="49" t="s">
-        <v>443</v>
+      <c r="C376" s="59">
+        <v>3060</v>
+      </c>
+      <c r="D376" s="50" t="s">
+        <v>335</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="49">
-        <v>3051</v>
+      <c r="A377" s="54">
+        <v>3061</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C377" s="49">
-        <v>3051</v>
-      </c>
-      <c r="D377" s="49" t="s">
-        <v>462</v>
+      <c r="C377" s="54">
+        <v>3061</v>
+      </c>
+      <c r="D377" s="54" t="s">
+        <v>463</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="59">
-        <v>3060</v>
+      <c r="A378" s="49">
+        <v>3062</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C378" s="59">
-        <v>3060</v>
-      </c>
-      <c r="D378" s="50" t="s">
-        <v>335</v>
+      <c r="C378" s="49">
+        <v>3062</v>
+      </c>
+      <c r="D378" s="49" t="s">
+        <v>464</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="54">
-        <v>3061</v>
+      <c r="A379" s="49">
+        <v>3063</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C379" s="54">
-        <v>3061</v>
-      </c>
-      <c r="D379" s="54" t="s">
-        <v>463</v>
+      <c r="C379" s="49">
+        <v>3063</v>
+      </c>
+      <c r="D379" s="49" t="s">
+        <v>465</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>246</v>
@@ -18176,16 +18169,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="49">
-        <v>3062</v>
+        <v>3071</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C380" s="49">
-        <v>3062</v>
+        <v>3071</v>
       </c>
       <c r="D380" s="49" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>246</v>
@@ -18193,16 +18186,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="49">
-        <v>3063</v>
+        <v>3081</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C381" s="49">
-        <v>3063</v>
+        <v>3081</v>
       </c>
       <c r="D381" s="49" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>246</v>
@@ -18210,16 +18203,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="49">
-        <v>3071</v>
+        <v>3091</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C382" s="49">
-        <v>3071</v>
+        <v>3091</v>
       </c>
       <c r="D382" s="49" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>246</v>
@@ -18227,16 +18220,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="49">
-        <v>3081</v>
+        <v>3101</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C383" s="49">
-        <v>3081</v>
+        <v>3101</v>
       </c>
       <c r="D383" s="49" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>246</v>
@@ -18244,16 +18237,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="49">
-        <v>3091</v>
+        <v>3111</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C384" s="49">
-        <v>3091</v>
+        <v>3111</v>
       </c>
       <c r="D384" s="49" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>246</v>
@@ -18261,16 +18254,16 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="49">
-        <v>3101</v>
+        <v>3121</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C385" s="49">
-        <v>3101</v>
+        <v>3121</v>
       </c>
       <c r="D385" s="49" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>246</v>
@@ -18278,16 +18271,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="49">
-        <v>3111</v>
+        <v>3131</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C386" s="49">
-        <v>3111</v>
+        <v>3131</v>
       </c>
       <c r="D386" s="49" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>246</v>
@@ -18295,33 +18288,33 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="49">
-        <v>3121</v>
+        <v>3140</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C387" s="49">
-        <v>3121</v>
+        <v>3140</v>
       </c>
       <c r="D387" s="49" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="49">
-        <v>3131</v>
+      <c r="A388" s="43">
+        <v>3141</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C388" s="49">
-        <v>3131</v>
-      </c>
-      <c r="D388" s="49" t="s">
-        <v>514</v>
+      <c r="C388" s="43">
+        <v>3141</v>
+      </c>
+      <c r="D388" s="43" t="s">
+        <v>613</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>246</v>
@@ -18329,33 +18322,33 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="49">
-        <v>3140</v>
+        <v>3151</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C389" s="49">
-        <v>3140</v>
+        <v>3151</v>
       </c>
       <c r="D389" s="49" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="43">
-        <v>3141</v>
+      <c r="A390" s="49">
+        <v>3161</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C390" s="43">
-        <v>3141</v>
-      </c>
-      <c r="D390" s="43" t="s">
-        <v>613</v>
+      <c r="C390" s="49">
+        <v>3161</v>
+      </c>
+      <c r="D390" s="49" t="s">
+        <v>519</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>246</v>
@@ -18363,33 +18356,33 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="49">
-        <v>3151</v>
+        <v>3171</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C391" s="49">
-        <v>3151</v>
+        <v>3171</v>
       </c>
       <c r="D391" s="49" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="49">
-        <v>3161</v>
+      <c r="A392" s="43">
+        <v>3181</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C392" s="49">
-        <v>3161</v>
-      </c>
-      <c r="D392" s="49" t="s">
-        <v>519</v>
+      <c r="C392" s="43">
+        <v>3181</v>
+      </c>
+      <c r="D392" s="43" t="s">
+        <v>612</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>246</v>
@@ -18397,33 +18390,33 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="49">
-        <v>3171</v>
+        <v>3182</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C393" s="49">
-        <v>3171</v>
+        <v>3182</v>
       </c>
       <c r="D393" s="49" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="43">
-        <v>3181</v>
+      <c r="A394" s="49">
+        <v>3191</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C394" s="43">
-        <v>3181</v>
-      </c>
-      <c r="D394" s="43" t="s">
-        <v>612</v>
+      <c r="C394" s="49">
+        <v>3191</v>
+      </c>
+      <c r="D394" s="49" t="s">
+        <v>535</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>246</v>
@@ -18431,16 +18424,16 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="49">
-        <v>3182</v>
+        <v>3201</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C395" s="49">
-        <v>3182</v>
+        <v>3201</v>
       </c>
       <c r="D395" s="49" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>246</v>
@@ -18448,16 +18441,16 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="49">
-        <v>3191</v>
+        <v>3221</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C396" s="49">
-        <v>3191</v>
+        <v>3221</v>
       </c>
       <c r="D396" s="49" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>246</v>
@@ -18465,16 +18458,16 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="49">
-        <v>3201</v>
+        <v>3222</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C397" s="49">
-        <v>3201</v>
+        <v>3222</v>
       </c>
       <c r="D397" s="49" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>246</v>
@@ -18482,16 +18475,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="49">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C398" s="49">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="D398" s="49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>246</v>
@@ -18499,16 +18492,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="49">
-        <v>3222</v>
+        <v>3231</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C399" s="49">
-        <v>3222</v>
+        <v>3231</v>
       </c>
       <c r="D399" s="49" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>246</v>
@@ -18516,16 +18509,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="49">
-        <v>3223</v>
+        <v>3241</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C400" s="49">
-        <v>3223</v>
+        <v>3241</v>
       </c>
       <c r="D400" s="49" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>246</v>
@@ -18533,33 +18526,33 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="49">
-        <v>3231</v>
+        <v>3251</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C401" s="49">
-        <v>3231</v>
+        <v>3251</v>
       </c>
       <c r="D401" s="49" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="49">
-        <v>3241</v>
+      <c r="A402" s="59">
+        <v>3261</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C402" s="49">
-        <v>3241</v>
-      </c>
-      <c r="D402" s="49" t="s">
-        <v>561</v>
+      <c r="C402" s="59">
+        <v>3261</v>
+      </c>
+      <c r="D402" s="50" t="s">
+        <v>416</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>246</v>
@@ -18567,87 +18560,90 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="49">
-        <v>3251</v>
+        <v>3271</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C403" s="49">
-        <v>3251</v>
+        <v>3271</v>
       </c>
       <c r="D403" s="49" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="59">
-        <v>3261</v>
+      <c r="A404" s="49">
+        <v>3272</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C404" s="59">
-        <v>3261</v>
-      </c>
-      <c r="D404" s="50" t="s">
-        <v>416</v>
+      <c r="C404" s="49">
+        <v>3272</v>
+      </c>
+      <c r="D404" s="49" t="s">
+        <v>588</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="49">
-        <v>3271</v>
+      <c r="A405" s="59">
+        <v>3900</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C405" s="49">
-        <v>3271</v>
-      </c>
-      <c r="D405" s="49" t="s">
-        <v>587</v>
+      <c r="C405" s="59">
+        <v>3900</v>
+      </c>
+      <c r="D405" s="50" t="s">
+        <v>337</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="49">
-        <v>3272</v>
+      <c r="A406" s="59">
+        <v>3935</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C406" s="49">
-        <v>3272</v>
-      </c>
-      <c r="D406" s="49" t="s">
-        <v>588</v>
+      <c r="C406" s="59">
+        <v>3935</v>
+      </c>
+      <c r="D406" s="50" t="s">
+        <v>338</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="59">
-        <v>3900</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C407" s="59">
-        <v>3900</v>
-      </c>
-      <c r="D407" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>246</v>
+      <c r="A407" s="87">
+        <v>3935</v>
+      </c>
+      <c r="B407" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C407" s="87">
+        <v>3935</v>
+      </c>
+      <c r="D407" s="87" t="s">
+        <v>894</v>
+      </c>
+      <c r="E407" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F407" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -18661,44 +18657,41 @@
         <v>3935</v>
       </c>
       <c r="D408" s="50" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="87">
+      <c r="A409" s="59">
         <v>3935</v>
       </c>
-      <c r="B409" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C409" s="87">
+      <c r="B409" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C409" s="59">
         <v>3935</v>
       </c>
-      <c r="D409" s="87" t="s">
-        <v>894</v>
-      </c>
-      <c r="E409" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F409" s="86" t="s">
-        <v>899</v>
+      <c r="D409" s="50" t="s">
+        <v>880</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="59">
-        <v>3935</v>
+      <c r="A410" s="49">
+        <v>3960</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C410" s="59">
-        <v>3935</v>
-      </c>
-      <c r="D410" s="50" t="s">
-        <v>323</v>
+      <c r="C410" s="49">
+        <v>3960</v>
+      </c>
+      <c r="D410" s="49" t="s">
+        <v>480</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>246</v>
@@ -18706,87 +18699,87 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="59">
-        <v>3935</v>
+        <v>3960</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C411" s="59">
-        <v>3935</v>
+        <v>3960</v>
       </c>
       <c r="D411" s="50" t="s">
-        <v>880</v>
+        <v>611</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="49">
+      <c r="A412" s="87">
         <v>3960</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C412" s="49">
+      <c r="B412" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C412" s="87">
         <v>3960</v>
       </c>
-      <c r="D412" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>246</v>
+      <c r="D412" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="E412" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F412" s="86" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="59">
-        <v>3960</v>
+      <c r="A413" s="49">
+        <v>3961</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C413" s="59">
-        <v>3960</v>
-      </c>
-      <c r="D413" s="50" t="s">
-        <v>611</v>
+      <c r="C413" s="49">
+        <v>3961</v>
+      </c>
+      <c r="D413" s="49" t="s">
+        <v>481</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="87">
-        <v>3960</v>
-      </c>
-      <c r="B414" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C414" s="87">
-        <v>3960</v>
-      </c>
-      <c r="D414" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="E414" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F414" s="86" t="s">
-        <v>899</v>
+      <c r="A414" s="49">
+        <v>3962</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C414" s="49">
+        <v>3962</v>
+      </c>
+      <c r="D414" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="49">
-        <v>3961</v>
+      <c r="A415" s="59">
+        <v>3970</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C415" s="49">
-        <v>3961</v>
-      </c>
-      <c r="D415" s="49" t="s">
-        <v>481</v>
+      <c r="C415" s="59">
+        <v>3970</v>
+      </c>
+      <c r="D415" s="50" t="s">
+        <v>321</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>246</v>
@@ -18794,33 +18787,33 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="49">
-        <v>3962</v>
+        <v>3971</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C416" s="49">
-        <v>3962</v>
+        <v>3971</v>
       </c>
       <c r="D416" s="49" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="59">
-        <v>3970</v>
+      <c r="A417" s="49">
+        <v>3972</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C417" s="59">
-        <v>3970</v>
-      </c>
-      <c r="D417" s="50" t="s">
-        <v>321</v>
+      <c r="C417" s="49">
+        <v>3972</v>
+      </c>
+      <c r="D417" s="49" t="s">
+        <v>472</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>246</v>
@@ -18828,33 +18821,33 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="49">
-        <v>3971</v>
+        <v>3973</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C418" s="49">
-        <v>3971</v>
+        <v>3973</v>
       </c>
       <c r="D418" s="49" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="49">
-        <v>3972</v>
+      <c r="A419" s="59">
+        <v>3980</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C419" s="49">
-        <v>3972</v>
-      </c>
-      <c r="D419" s="49" t="s">
-        <v>472</v>
+      <c r="C419" s="59">
+        <v>3980</v>
+      </c>
+      <c r="D419" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>246</v>
@@ -18862,33 +18855,33 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="49">
-        <v>3973</v>
+        <v>4001</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C420" s="49">
-        <v>3973</v>
+        <v>4001</v>
       </c>
       <c r="D420" s="49" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="59">
-        <v>3980</v>
+      <c r="A421" s="49">
+        <v>4002</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C421" s="59">
-        <v>3980</v>
-      </c>
-      <c r="D421" s="50" t="s">
-        <v>320</v>
+      <c r="C421" s="49">
+        <v>4002</v>
+      </c>
+      <c r="D421" s="49" t="s">
+        <v>503</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>246</v>
@@ -18896,16 +18889,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="49">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C422" s="49">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="D422" s="49" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>246</v>
@@ -18913,16 +18906,16 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="49">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C423" s="49">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="D423" s="49" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>246</v>
@@ -18930,16 +18923,16 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="49">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C424" s="49">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="D424" s="49" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>246</v>
@@ -18947,16 +18940,16 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="49">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C425" s="49">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="D425" s="49" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>246</v>
@@ -18964,16 +18957,16 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="49">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C426" s="49">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="D426" s="49" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>246</v>
@@ -18981,16 +18974,16 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="49">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C427" s="49">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="D427" s="49" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>246</v>
@@ -18998,16 +18991,16 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="49">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C428" s="49">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="D428" s="49" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>246</v>
@@ -19015,16 +19008,16 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="49">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C429" s="49">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="D429" s="49" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>246</v>
@@ -19032,16 +19025,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="49">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C430" s="49">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="D430" s="49" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>246</v>
@@ -19049,16 +19042,16 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="49">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C431" s="49">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="D431" s="49" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>246</v>
@@ -19066,16 +19059,16 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="49">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C432" s="49">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="D432" s="49" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>246</v>
@@ -19083,16 +19076,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="49">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C433" s="49">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="D433" s="49" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>246</v>
@@ -19100,16 +19093,16 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="49">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C434" s="49">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="D434" s="49" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>246</v>
@@ -19117,16 +19110,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="49">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C435" s="49">
-        <v>4014</v>
+        <v>4101</v>
       </c>
       <c r="D435" s="49" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>246</v>
@@ -19134,16 +19127,16 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="49">
-        <v>4015</v>
+        <v>4116</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C436" s="49">
-        <v>4015</v>
+        <v>4116</v>
       </c>
       <c r="D436" s="49" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>246</v>
@@ -19151,16 +19144,16 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="49">
-        <v>4101</v>
+        <v>4121</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C437" s="49">
-        <v>4101</v>
+        <v>4121</v>
       </c>
       <c r="D437" s="49" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>246</v>
@@ -19168,16 +19161,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="49">
-        <v>4116</v>
+        <v>4123</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C438" s="49">
-        <v>4116</v>
+        <v>4123</v>
       </c>
       <c r="D438" s="49" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>246</v>
@@ -19185,16 +19178,16 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="49">
-        <v>4121</v>
+        <v>4126</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C439" s="49">
-        <v>4121</v>
+        <v>4126</v>
       </c>
       <c r="D439" s="49" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>246</v>
@@ -19202,16 +19195,16 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="49">
-        <v>4123</v>
+        <v>4136</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C440" s="49">
-        <v>4123</v>
+        <v>4136</v>
       </c>
       <c r="D440" s="49" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>246</v>
@@ -19219,16 +19212,16 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="49">
-        <v>4126</v>
+        <v>4160</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C441" s="49">
-        <v>4126</v>
+        <v>4160</v>
       </c>
       <c r="D441" s="49" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>246</v>
@@ -19236,16 +19229,16 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="49">
-        <v>4136</v>
+        <v>4161</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C442" s="49">
-        <v>4136</v>
+        <v>4161</v>
       </c>
       <c r="D442" s="49" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>246</v>
@@ -19253,33 +19246,33 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="49">
-        <v>4160</v>
+        <v>4163</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C443" s="49">
-        <v>4160</v>
+        <v>4163</v>
       </c>
       <c r="D443" s="49" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="49">
-        <v>4161</v>
+      <c r="A444" s="54">
+        <v>4164</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C444" s="49">
-        <v>4161</v>
-      </c>
-      <c r="D444" s="49" t="s">
-        <v>511</v>
+      <c r="C444" s="54">
+        <v>4164</v>
+      </c>
+      <c r="D444" s="54" t="s">
+        <v>525</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>246</v>
@@ -19287,33 +19280,33 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="49">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C445" s="49">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="D445" s="49" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="54">
-        <v>4164</v>
+      <c r="A446" s="49">
+        <v>4166</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C446" s="54">
-        <v>4164</v>
-      </c>
-      <c r="D446" s="54" t="s">
-        <v>525</v>
+      <c r="C446" s="49">
+        <v>4166</v>
+      </c>
+      <c r="D446" s="49" t="s">
+        <v>540</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>246</v>
@@ -19321,16 +19314,16 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="49">
-        <v>4165</v>
+        <v>4174</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C447" s="49">
-        <v>4165</v>
+        <v>4174</v>
       </c>
       <c r="D447" s="49" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>246</v>
@@ -19338,16 +19331,16 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="49">
-        <v>4166</v>
+        <v>4177</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C448" s="49">
-        <v>4166</v>
+        <v>4177</v>
       </c>
       <c r="D448" s="49" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>246</v>
@@ -19355,16 +19348,16 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="49">
-        <v>4174</v>
+        <v>4191</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C449" s="49">
-        <v>4174</v>
+        <v>4191</v>
       </c>
       <c r="D449" s="49" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>246</v>
@@ -19372,16 +19365,16 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="49">
-        <v>4177</v>
+        <v>4196</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C450" s="49">
-        <v>4177</v>
+        <v>4196</v>
       </c>
       <c r="D450" s="49" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>246</v>
@@ -19389,16 +19382,16 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="49">
-        <v>4191</v>
+        <v>4211</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C451" s="49">
-        <v>4191</v>
+        <v>4211</v>
       </c>
       <c r="D451" s="49" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>246</v>
@@ -19406,16 +19399,16 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="49">
-        <v>4196</v>
+        <v>4216</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C452" s="49">
-        <v>4196</v>
+        <v>4216</v>
       </c>
       <c r="D452" s="49" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>246</v>
@@ -19423,16 +19416,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="49">
-        <v>4211</v>
+        <v>4221</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C453" s="49">
-        <v>4211</v>
+        <v>4221</v>
       </c>
       <c r="D453" s="49" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>246</v>
@@ -19440,16 +19433,16 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="49">
-        <v>4216</v>
+        <v>4225</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C454" s="49">
-        <v>4216</v>
+        <v>4225</v>
       </c>
       <c r="D454" s="49" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>246</v>
@@ -19457,16 +19450,16 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="49">
-        <v>4221</v>
+        <v>4226</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C455" s="49">
-        <v>4221</v>
+        <v>4226</v>
       </c>
       <c r="D455" s="49" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>246</v>
@@ -19474,16 +19467,16 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="49">
-        <v>4225</v>
+        <v>4235</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C456" s="49">
-        <v>4225</v>
+        <v>4235</v>
       </c>
       <c r="D456" s="49" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>246</v>
@@ -19491,16 +19484,16 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="49">
-        <v>4226</v>
+        <v>4531</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C457" s="49">
-        <v>4226</v>
+        <v>4531</v>
       </c>
       <c r="D457" s="49" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>246</v>
@@ -19508,16 +19501,16 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="49">
-        <v>4235</v>
+        <v>4535</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C458" s="49">
-        <v>4235</v>
+        <v>4535</v>
       </c>
       <c r="D458" s="49" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>246</v>
@@ -19525,16 +19518,16 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="49">
-        <v>4531</v>
+        <v>6205</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C459" s="49">
-        <v>4531</v>
+        <v>6205</v>
       </c>
       <c r="D459" s="49" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>246</v>
@@ -19542,33 +19535,33 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="49">
-        <v>4535</v>
+        <v>6206</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C460" s="49">
-        <v>4535</v>
+        <v>6206</v>
       </c>
       <c r="D460" s="49" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="49">
-        <v>6205</v>
+      <c r="A461" s="54">
+        <v>6241</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C461" s="49">
-        <v>6205</v>
+      <c r="C461" s="54">
+        <v>6241</v>
       </c>
       <c r="D461" s="49" t="s">
-        <v>491</v>
+        <v>593</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>246</v>
@@ -19576,16 +19569,16 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="49">
-        <v>6206</v>
+        <v>6425</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C462" s="49">
-        <v>6206</v>
+        <v>6425</v>
       </c>
       <c r="D462" s="49" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>246</v>
@@ -19593,16 +19586,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="54">
-        <v>6241</v>
+        <v>6432</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C463" s="54">
-        <v>6241</v>
-      </c>
-      <c r="D463" s="49" t="s">
-        <v>593</v>
+        <v>6432</v>
+      </c>
+      <c r="D463" s="54" t="s">
+        <v>548</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>246</v>
@@ -19610,33 +19603,33 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="49">
-        <v>6425</v>
+        <v>6577</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C464" s="49">
-        <v>6425</v>
+        <v>6577</v>
       </c>
       <c r="D464" s="49" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="54">
-        <v>6432</v>
+      <c r="A465" s="49">
+        <v>6582</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C465" s="54">
-        <v>6432</v>
-      </c>
-      <c r="D465" s="54" t="s">
-        <v>548</v>
+      <c r="C465" s="49">
+        <v>6582</v>
+      </c>
+      <c r="D465" s="49" t="s">
+        <v>545</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>246</v>
@@ -19644,16 +19637,16 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="49">
-        <v>6577</v>
+        <v>7162</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C466" s="49">
-        <v>6577</v>
+        <v>7162</v>
       </c>
       <c r="D466" s="49" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>246</v>
@@ -19661,16 +19654,16 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="49">
-        <v>6582</v>
+        <v>7290</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C467" s="49">
-        <v>6582</v>
+        <v>7290</v>
       </c>
       <c r="D467" s="49" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>246</v>
@@ -19678,33 +19671,33 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="49">
-        <v>7162</v>
+        <v>7313</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C468" s="49">
-        <v>7162</v>
+        <v>7313</v>
       </c>
       <c r="D468" s="49" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="49">
-        <v>7290</v>
+      <c r="A469" s="54">
+        <v>7373</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C469" s="49">
-        <v>7290</v>
-      </c>
-      <c r="D469" s="49" t="s">
-        <v>500</v>
+      <c r="C469" s="54">
+        <v>7373</v>
+      </c>
+      <c r="D469" s="54" t="s">
+        <v>310</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>246</v>
@@ -19712,67 +19705,67 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="49">
-        <v>7313</v>
+        <v>7430</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C470" s="49">
-        <v>7313</v>
+        <v>7430</v>
       </c>
       <c r="D470" s="49" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="54">
-        <v>7373</v>
+      <c r="A471" s="49">
+        <v>7616</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C471" s="54">
-        <v>7373</v>
-      </c>
-      <c r="D471" s="54" t="s">
-        <v>310</v>
+      <c r="C471" s="49">
+        <v>7616</v>
+      </c>
+      <c r="D471" s="49" t="s">
+        <v>550</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="49">
-        <v>7430</v>
+      <c r="A472" s="54">
+        <v>7621</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C472" s="49">
-        <v>7430</v>
-      </c>
-      <c r="D472" s="49" t="s">
-        <v>522</v>
+      <c r="C472" s="54">
+        <v>7621</v>
+      </c>
+      <c r="D472" s="54" t="s">
+        <v>703</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="49">
-        <v>7616</v>
+      <c r="A473" s="47">
+        <v>7680</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C473" s="49">
-        <v>7616</v>
-      </c>
-      <c r="D473" s="49" t="s">
-        <v>550</v>
+        <v>238</v>
+      </c>
+      <c r="C473" s="47">
+        <v>7680</v>
+      </c>
+      <c r="D473" s="54" t="s">
+        <v>881</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>246</v>
@@ -19780,87 +19773,87 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="54">
-        <v>7621</v>
+        <v>7680</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C474" s="54">
-        <v>7621</v>
-      </c>
-      <c r="D474" s="54" t="s">
-        <v>703</v>
+        <v>7680</v>
+      </c>
+      <c r="D474" s="83" t="s">
+        <v>876</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="F474" s="3" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="47">
-        <v>7680</v>
+      <c r="A475" s="49">
+        <v>7780</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C475" s="47">
-        <v>7680</v>
-      </c>
-      <c r="D475" s="54" t="s">
-        <v>881</v>
+        <v>223</v>
+      </c>
+      <c r="C475" s="49">
+        <v>7780</v>
+      </c>
+      <c r="D475" s="49" t="s">
+        <v>521</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="54">
-        <v>7680</v>
+      <c r="A476" s="59">
+        <v>8000</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C476" s="54">
-        <v>7680</v>
-      </c>
-      <c r="D476" s="83" t="s">
-        <v>876</v>
+      <c r="C476" s="59">
+        <v>8000</v>
+      </c>
+      <c r="D476" s="50" t="s">
+        <v>418</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F476" s="3" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="49">
-        <v>7780</v>
+        <v>8017</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C477" s="49">
-        <v>7780</v>
+        <v>8017</v>
       </c>
       <c r="D477" s="49" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="59">
-        <v>8000</v>
+      <c r="A478" s="49">
+        <v>8023</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C478" s="59">
-        <v>8000</v>
-      </c>
-      <c r="D478" s="50" t="s">
-        <v>418</v>
+      <c r="C478" s="49">
+        <v>8023</v>
+      </c>
+      <c r="D478" s="49" t="s">
+        <v>497</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>246</v>
@@ -19868,16 +19861,16 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="49">
-        <v>8017</v>
+        <v>8027</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C479" s="49">
-        <v>8017</v>
+        <v>8027</v>
       </c>
       <c r="D479" s="49" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>246</v>
@@ -19885,16 +19878,16 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="49">
-        <v>8023</v>
+        <v>8028</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C480" s="49">
-        <v>8023</v>
+        <v>8028</v>
       </c>
       <c r="D480" s="49" t="s">
-        <v>497</v>
+        <v>589</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>246</v>
@@ -19902,16 +19895,16 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="49">
-        <v>8027</v>
+        <v>8029</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C481" s="49">
-        <v>8027</v>
+        <v>8029</v>
       </c>
       <c r="D481" s="49" t="s">
-        <v>445</v>
+        <v>547</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>246</v>
@@ -19919,16 +19912,16 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="49">
-        <v>8028</v>
+        <v>8061</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C482" s="49">
-        <v>8028</v>
+        <v>8061</v>
       </c>
       <c r="D482" s="49" t="s">
-        <v>589</v>
+        <v>478</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>246</v>
@@ -19936,16 +19929,16 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="49">
-        <v>8029</v>
+        <v>8136</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C483" s="49">
-        <v>8029</v>
+        <v>8136</v>
       </c>
       <c r="D483" s="49" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>246</v>
@@ -19953,16 +19946,16 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="49">
-        <v>8061</v>
+        <v>9018</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C484" s="49">
-        <v>8061</v>
+        <v>9018</v>
       </c>
       <c r="D484" s="49" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>246</v>
@@ -19970,16 +19963,16 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="49">
-        <v>8136</v>
+        <v>9019</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C485" s="49">
-        <v>8136</v>
+        <v>9019</v>
       </c>
       <c r="D485" s="49" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>246</v>
@@ -19987,84 +19980,84 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="49">
-        <v>9018</v>
+        <v>9218</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C486" s="49">
-        <v>9018</v>
+        <v>9218</v>
       </c>
       <c r="D486" s="49" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="49">
-        <v>9019</v>
+      <c r="A487" s="54">
+        <v>9261</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C487" s="49">
-        <v>9019</v>
-      </c>
-      <c r="D487" s="49" t="s">
-        <v>434</v>
+      <c r="C487" s="54">
+        <v>9261</v>
+      </c>
+      <c r="D487" s="54" t="s">
+        <v>537</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="49">
-        <v>9218</v>
+      <c r="A488" s="60">
+        <v>9900</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C488" s="49">
-        <v>9218</v>
-      </c>
-      <c r="D488" s="49" t="s">
-        <v>515</v>
+      <c r="C488" s="60">
+        <v>9900</v>
+      </c>
+      <c r="D488" s="51" t="s">
+        <v>692</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="54">
-        <v>9261</v>
+      <c r="A489" s="61">
+        <v>9970</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C489" s="54">
-        <v>9261</v>
-      </c>
-      <c r="D489" s="54" t="s">
-        <v>537</v>
+      <c r="C489" s="61">
+        <v>9970</v>
+      </c>
+      <c r="D489" s="50" t="s">
+        <v>419</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="60">
-        <v>9900</v>
+      <c r="A490" s="61">
+        <v>9980</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C490" s="60">
-        <v>9900</v>
-      </c>
-      <c r="D490" s="51" t="s">
-        <v>692</v>
+      <c r="C490" s="61">
+        <v>9980</v>
+      </c>
+      <c r="D490" s="50" t="s">
+        <v>779</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>246</v>
@@ -20072,50 +20065,50 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="61">
-        <v>9970</v>
+        <v>9981</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C491" s="61">
-        <v>9970</v>
+        <v>9981</v>
       </c>
       <c r="D491" s="50" t="s">
-        <v>419</v>
+        <v>780</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="61">
-        <v>9980</v>
+      <c r="A492" s="59">
+        <v>9990</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C492" s="61">
-        <v>9980</v>
+      <c r="C492" s="59">
+        <v>9990</v>
       </c>
       <c r="D492" s="50" t="s">
-        <v>779</v>
+        <v>420</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="61">
-        <v>9981</v>
+      <c r="A493" s="59">
+        <v>9992</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C493" s="61">
-        <v>9981</v>
+      <c r="C493" s="59">
+        <v>9992</v>
       </c>
       <c r="D493" s="50" t="s">
-        <v>780</v>
+        <v>421</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>246</v>
@@ -20123,50 +20116,50 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="59">
-        <v>9990</v>
+        <v>9993</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C494" s="59">
-        <v>9990</v>
+        <v>9993</v>
       </c>
       <c r="D494" s="50" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="59">
-        <v>9992</v>
+      <c r="A495" s="49">
+        <v>50001</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C495" s="59">
-        <v>9992</v>
-      </c>
-      <c r="D495" s="50" t="s">
-        <v>421</v>
+      <c r="C495" s="49">
+        <v>4601</v>
+      </c>
+      <c r="D495" s="49" t="s">
+        <v>437</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="59">
-        <v>9993</v>
+      <c r="A496" s="49">
+        <v>50002</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C496" s="59">
-        <v>9993</v>
-      </c>
-      <c r="D496" s="50" t="s">
-        <v>422</v>
+      <c r="C496" s="49">
+        <v>4602</v>
+      </c>
+      <c r="D496" s="49" t="s">
+        <v>459</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>246</v>
@@ -20174,16 +20167,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="49">
-        <v>50001</v>
+        <v>50003</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C497" s="49">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="D497" s="49" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>246</v>
@@ -20191,16 +20184,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="49">
-        <v>50002</v>
+        <v>50004</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C498" s="49">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="D498" s="49" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>246</v>
@@ -20208,16 +20201,16 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="49">
-        <v>50003</v>
+        <v>50005</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C499" s="49">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="D499" s="49" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>246</v>
@@ -20225,16 +20218,16 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="49">
-        <v>50004</v>
+        <v>50006</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C500" s="49">
-        <v>4604</v>
+        <v>4606</v>
       </c>
       <c r="D500" s="49" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>246</v>
@@ -20242,16 +20235,16 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="49">
-        <v>50005</v>
+        <v>50007</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C501" s="49">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="D501" s="49" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>246</v>
@@ -20259,16 +20252,16 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="49">
-        <v>50006</v>
+        <v>50008</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C502" s="49">
-        <v>4606</v>
+        <v>4608</v>
       </c>
       <c r="D502" s="49" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>246</v>
@@ -20276,16 +20269,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="49">
-        <v>50007</v>
+        <v>50009</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C503" s="49">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="D503" s="49" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>246</v>
@@ -20293,16 +20286,16 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="49">
-        <v>50008</v>
+        <v>50010</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C504" s="49">
-        <v>4608</v>
+        <v>4610</v>
       </c>
       <c r="D504" s="49" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>246</v>
@@ -20310,16 +20303,16 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="49">
-        <v>50009</v>
+        <v>50011</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C505" s="49">
-        <v>4609</v>
+        <v>4611</v>
       </c>
       <c r="D505" s="49" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>246</v>
@@ -20327,16 +20320,16 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="49">
-        <v>50010</v>
+        <v>50012</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C506" s="49">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="D506" s="49" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>246</v>
@@ -20344,16 +20337,16 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="49">
-        <v>50011</v>
+        <v>50013</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C507" s="49">
-        <v>4611</v>
+        <v>4613</v>
       </c>
       <c r="D507" s="49" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>246</v>
@@ -20361,16 +20354,16 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="49">
-        <v>50012</v>
+        <v>50014</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C508" s="49">
-        <v>4612</v>
+        <v>4614</v>
       </c>
       <c r="D508" s="49" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>246</v>
@@ -20378,16 +20371,16 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="49">
-        <v>50013</v>
+        <v>50015</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C509" s="49">
-        <v>4613</v>
+        <v>4615</v>
       </c>
       <c r="D509" s="49" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>246</v>
@@ -20395,16 +20388,16 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="49">
-        <v>50014</v>
+        <v>50016</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C510" s="49">
-        <v>4614</v>
+        <v>4616</v>
       </c>
       <c r="D510" s="49" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>246</v>
@@ -20412,16 +20405,16 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="49">
-        <v>50015</v>
+        <v>50017</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C511" s="49">
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="D511" s="49" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>246</v>
@@ -20429,16 +20422,16 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="49">
-        <v>50016</v>
+        <v>50018</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C512" s="49">
-        <v>4616</v>
+        <v>8000</v>
       </c>
       <c r="D512" s="49" t="s">
-        <v>586</v>
+        <v>418</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>246</v>
@@ -20446,16 +20439,16 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="49">
-        <v>50017</v>
+        <v>50019</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C513" s="49">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="D513" s="49" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>246</v>
@@ -20463,16 +20456,16 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="49">
-        <v>50018</v>
+        <v>50020</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C514" s="49">
-        <v>8000</v>
+        <v>4619</v>
       </c>
       <c r="D514" s="49" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>246</v>
@@ -20480,50 +20473,53 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="49">
-        <v>50019</v>
+        <v>50021</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C515" s="49">
-        <v>4618</v>
+        <v>4620</v>
       </c>
       <c r="D515" s="49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="49">
-        <v>50020</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C516" s="49">
-        <v>4619</v>
-      </c>
-      <c r="D516" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="E516" s="1" t="s">
-        <v>246</v>
+      <c r="A516" s="84">
+        <v>50022</v>
+      </c>
+      <c r="B516" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C516" s="84">
+        <v>2021</v>
+      </c>
+      <c r="D516" s="84" t="s">
+        <v>895</v>
+      </c>
+      <c r="E516" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="F516" s="91" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="49">
-        <v>50021</v>
+        <v>50022</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C517" s="49">
-        <v>4620</v>
+        <v>2021</v>
       </c>
       <c r="D517" s="49" t="s">
-        <v>529</v>
+        <v>454</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>246</v>
@@ -20531,16 +20527,16 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="84">
-        <v>50022</v>
+        <v>50023</v>
       </c>
       <c r="B518" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C518" s="84">
-        <v>2021</v>
+        <v>2131</v>
       </c>
       <c r="D518" s="84" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E518" s="85" t="s">
         <v>246</v>
@@ -20551,16 +20547,16 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="49">
-        <v>50022</v>
+        <v>50023</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C519" s="49">
-        <v>2021</v>
+        <v>2131</v>
       </c>
       <c r="D519" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E519" s="1" t="s">
         <v>246</v>
@@ -20568,16 +20564,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="84">
-        <v>50023</v>
+        <v>50024</v>
       </c>
       <c r="B520" s="85" t="s">
         <v>223</v>
       </c>
       <c r="C520" s="84">
-        <v>2131</v>
+        <v>2020</v>
       </c>
       <c r="D520" s="84" t="s">
-        <v>896</v>
+        <v>448</v>
       </c>
       <c r="E520" s="85" t="s">
         <v>246</v>
@@ -20588,87 +20584,84 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="49">
-        <v>50023</v>
+        <v>50024</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C521" s="49">
-        <v>2131</v>
+        <v>2020</v>
       </c>
       <c r="D521" s="49" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="84">
-        <v>50024</v>
-      </c>
-      <c r="B522" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C522" s="84">
-        <v>2020</v>
-      </c>
-      <c r="D522" s="84" t="s">
-        <v>448</v>
-      </c>
-      <c r="E522" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F522" s="91" t="s">
-        <v>899</v>
+      <c r="A522" s="49">
+        <v>50025</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C522" s="49">
+        <v>4621</v>
+      </c>
+      <c r="D522" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="49">
-        <v>50024</v>
+        <v>50026</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C523" s="49">
-        <v>2020</v>
-      </c>
-      <c r="D523" s="49" t="s">
-        <v>448</v>
+        <v>4622</v>
+      </c>
+      <c r="D523" s="54" t="s">
+        <v>527</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="49">
-        <v>50025</v>
+      <c r="A524" s="77">
+        <v>50027</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C524" s="49">
-        <v>4621</v>
-      </c>
-      <c r="D524" s="54" t="s">
-        <v>499</v>
+      <c r="C524" s="78">
+        <v>2174</v>
+      </c>
+      <c r="D524" s="78" t="s">
+        <v>909</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="49">
-        <v>50026</v>
+      <c r="A525" s="77">
+        <v>50028</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C525" s="49">
-        <v>4622</v>
-      </c>
-      <c r="D525" s="54" t="s">
-        <v>527</v>
+      <c r="C525" s="78">
+        <v>3182</v>
+      </c>
+      <c r="D525" s="78" t="s">
+        <v>849</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>246</v>
@@ -20676,16 +20669,16 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="77">
-        <v>50027</v>
+        <v>50029</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C526" s="78">
-        <v>2174</v>
+        <v>4629</v>
       </c>
       <c r="D526" s="78" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>246</v>
@@ -20693,16 +20686,16 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="77">
-        <v>50028</v>
+        <v>50030</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C527" s="78">
-        <v>3182</v>
+        <v>2127</v>
       </c>
       <c r="D527" s="78" t="s">
-        <v>849</v>
+        <v>911</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>246</v>
@@ -20710,16 +20703,16 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="77">
-        <v>50029</v>
+        <v>50031</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C528" s="78">
-        <v>4629</v>
+        <v>2139</v>
       </c>
       <c r="D528" s="78" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>246</v>
@@ -20727,16 +20720,16 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="77">
-        <v>50030</v>
+        <v>50032</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C529" s="78">
-        <v>2127</v>
+        <v>2169</v>
       </c>
       <c r="D529" s="78" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>246</v>
@@ -20744,16 +20737,16 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="77">
-        <v>50031</v>
+        <v>50033</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C530" s="78">
-        <v>2139</v>
+        <v>7276</v>
       </c>
       <c r="D530" s="78" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>246</v>
@@ -20761,16 +20754,16 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="77">
-        <v>50032</v>
+        <v>50034</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C531" s="78">
-        <v>2169</v>
+        <v>6519</v>
       </c>
       <c r="D531" s="78" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>246</v>
@@ -20778,16 +20771,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="77">
-        <v>50033</v>
+        <v>50035</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C532" s="78">
-        <v>7276</v>
+        <v>4635</v>
       </c>
       <c r="D532" s="78" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>246</v>
@@ -20795,16 +20788,16 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="77">
-        <v>50034</v>
+        <v>50036</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C533" s="78">
-        <v>6519</v>
+        <v>4636</v>
       </c>
       <c r="D533" s="78" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>246</v>
@@ -20812,16 +20805,16 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="77">
-        <v>50035</v>
+        <v>50037</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C534" s="78">
-        <v>4635</v>
+        <v>3262</v>
       </c>
       <c r="D534" s="78" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>246</v>
@@ -20829,16 +20822,16 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="77">
-        <v>50036</v>
+        <v>50038</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C535" s="78">
-        <v>4636</v>
+        <v>2111</v>
       </c>
       <c r="D535" s="78" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>246</v>
@@ -20846,16 +20839,16 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="77">
-        <v>50037</v>
+        <v>50039</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C536" s="78">
-        <v>3262</v>
+        <v>4639</v>
       </c>
       <c r="D536" s="78" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>246</v>
@@ -20863,16 +20856,16 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="77">
-        <v>50038</v>
+        <v>50040</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C537" s="78">
-        <v>2111</v>
+        <v>4640</v>
       </c>
       <c r="D537" s="78" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>246</v>
@@ -20880,59 +20873,25 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="77">
-        <v>50039</v>
+        <v>50042</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C538" s="78">
-        <v>4639</v>
+        <v>7256</v>
       </c>
       <c r="D538" s="78" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="77">
-        <v>50040</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C539" s="78">
-        <v>4640</v>
-      </c>
-      <c r="D539" s="78" t="s">
-        <v>921</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="77">
-        <v>50042</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C540" s="78">
-        <v>7256</v>
-      </c>
-      <c r="D540" s="78" t="s">
-        <v>922</v>
-      </c>
-      <c r="E540" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F540" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A233:F540">
-      <sortCondition ref="A1:A540"/>
+  <autoFilter ref="A1:F538" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A233:F538">
+      <sortCondition ref="A1:A538"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20941,11 +20900,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7920AA0-CA42-49AE-AC87-909B0281BA91}">
-  <dimension ref="A1:G427"/>
+  <dimension ref="A1:G428"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A365" sqref="A365"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22307,7 +22266,7 @@
         <v>9999</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>871</v>
+        <v>270</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>246</v>
@@ -28263,18 +28222,35 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="47">
-        <v>9999</v>
+        <v>9990</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C427" s="47">
+        <v>9990</v>
+      </c>
+      <c r="D427" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="47">
         <v>9999</v>
       </c>
-      <c r="D427" s="54" t="s">
+      <c r="B428" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C428" s="47">
+        <v>9999</v>
+      </c>
+      <c r="D428" s="54" t="s">
         <v>871</v>
       </c>
-      <c r="E427" s="1" t="s">
+      <c r="E428" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -28294,8 +28270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5B7E4F-0FF6-450D-81AD-00DBE417ECDD}">
   <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B384" sqref="B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
